--- a/data/trans_bre/P6903-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6903-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,14%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,79; 16,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,49; 46,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,45; 44,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,02; 62,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,84; 66,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,25; 363,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,44; 195,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,86; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,87%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 5,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 25,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,59; 13,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,02; 20,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,83; 19,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,59; 146,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,6; 48,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,74; 67,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,53%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; 8,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,66; 23,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 21,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 22,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,38; 29,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,63; 113,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,39; 71,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 109,03</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 30,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,79; 23,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,63; 19,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; 20,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,33; 138,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,93; 176,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,66; 58,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,99; 64,75</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>234,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,81%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,51; 44,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,09; 54,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; 25,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 25,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,35; 461,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,04; 920,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,79; 79,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,71; 107,01</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>33,62</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 82,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 6,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 19,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 11,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 14,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,27; 23,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,63; 94,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,89; 33,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 47,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6903-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>32,27%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 62,24</t>
+          <t>-66,14; 60,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-88,86; —</t>
+          <t>-85,25; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>-1,09%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 20,94</t>
+          <t>-25,48; 21,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,74; 67,45</t>
+          <t>-46,22; 73,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>36,46%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 22,77</t>
+          <t>-2,48; 23,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 109,03</t>
+          <t>-8,0; 117,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 20,5</t>
+          <t>-19,81; 15,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 64,75</t>
+          <t>-47,14; 47,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,81%</t>
+          <t>32,77%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 25,49</t>
+          <t>-3,44; 26,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 107,01</t>
+          <t>-8,93; 113,08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,62</t>
+          <t>34,09</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,66</t>
+          <t>0,0; 83,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,86</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-2,58%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>45,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-8,59; 6,98</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,07; 19,21</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-6,24; 11,43</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 14,76</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 12,87</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-25,27; 23,71</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>7,63; 94,47</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-13,89; 33,39</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 47,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-21,58; 41,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P6903-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 16,99</t>
+          <t>-30,87; 21,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 46,4</t>
+          <t>-48,73; 36,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 44,9</t>
+          <t>-31,75; 44,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,14; 60,29</t>
+          <t>-72,75; 58,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,84; 66,73</t>
+          <t>-69,38; 79,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-76,25; 363,02</t>
+          <t>-79,16; 236,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 195,04</t>
+          <t>-53,92; 169,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-85,25; —</t>
+          <t>-91,82; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 5,47</t>
+          <t>-20,08; 5,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 25,79</t>
+          <t>-6,9; 24,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 13,06</t>
+          <t>-21,06; 13,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 21,45</t>
+          <t>-22,5; 20,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,83; 19,65</t>
+          <t>-50,07; 20,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 146,09</t>
+          <t>-23,41; 131,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 48,23</t>
+          <t>-47,7; 48,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 73,47</t>
+          <t>-44,12; 71,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 8,96</t>
+          <t>-17,93; 9,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 23,88</t>
+          <t>-6,57; 23,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 21,64</t>
+          <t>-7,05; 21,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 23,25</t>
+          <t>-2,86; 23,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,38; 29,81</t>
+          <t>-43,83; 34,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 113,96</t>
+          <t>-18,77; 105,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 71,49</t>
+          <t>-16,67; 70,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 117,15</t>
+          <t>-8,89; 111,18</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 30,74</t>
+          <t>-5,4; 29,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 23,15</t>
+          <t>-9,4; 23,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 19,14</t>
+          <t>-15,16; 18,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 15,56</t>
+          <t>-23,64; 14,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 138,5</t>
+          <t>-16,98; 140,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 176,47</t>
+          <t>-43,95; 166,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 58,8</t>
+          <t>-32,51; 57,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,14; 47,75</t>
+          <t>-54,33; 44,69</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 44,02</t>
+          <t>-11,35; 45,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 54,19</t>
+          <t>6,14; 52,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 25,67</t>
+          <t>-25,96; 24,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 26,64</t>
+          <t>-4,07; 25,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 461,77</t>
+          <t>-62,9; 413,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 920,6</t>
+          <t>16,55; 1012,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 79,36</t>
+          <t>-48,09; 73,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 113,08</t>
+          <t>-9,79; 106,11</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,11</t>
+          <t>0,0; 82,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 6,98</t>
+          <t>-8,16; 8,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 19,21</t>
+          <t>2,61; 18,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 11,43</t>
+          <t>-6,47; 12,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 12,87</t>
+          <t>-8,22; 12,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 23,71</t>
+          <t>-23,62; 30,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,63; 94,47</t>
+          <t>8,93; 90,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 33,39</t>
+          <t>-15,05; 35,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 41,67</t>
+          <t>-19,51; 41,7</t>
         </is>
       </c>
     </row>
